--- a/hourly datasets/cap_gen_year20final.xlsx
+++ b/hourly datasets/cap_gen_year20final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1050970259248663</v>
+        <v>0.1032827490704891</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00234072253843796</v>
+        <v>0.004763625017518802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003277594137886935</v>
+        <v>0.0008438719170554776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7331065304051919</v>
+        <v>5.481658796936038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1692566187621457</v>
+        <v>0.1337365934067819</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00408336300183605</v>
+        <v>0.003109660717741514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008764808078711973</v>
+        <v>0.006417589317296092</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1074377484633042</v>
+        <v>0.1080463740880079</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004926722377571627</v>
+        <v>0.009274788942493036</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005164819609881445</v>
+        <v>0.00133149388849625</v>
       </c>
       <c r="D4" t="n">
-        <v>3.159699164934</v>
+        <v>9.993172196100661</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1275730340371582</v>
+        <v>0.04521872179843062</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.005196326378791885</v>
+        <v>0.006665100332934794</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01504977113393514</v>
+        <v>0.01188447755205128</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1100237483024379</v>
+        <v>0.1125575380129821</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002024733779322709</v>
+        <v>0.007588028959536758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00439532853642185</v>
+        <v>0.005155505738442479</v>
       </c>
       <c r="D5" t="n">
-        <v>1.317279631549041</v>
+        <v>4.816190498694034</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07802793713465479</v>
+        <v>0.07189748726389381</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.006590136235976516</v>
+        <v>-0.00251661501146993</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01063960379462194</v>
+        <v>0.01769267293054345</v>
       </c>
       <c r="H5" t="n">
-        <v>0.107121759704189</v>
+        <v>0.1108707780300259</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002407097225618697</v>
+        <v>0.001104510828489702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00452486638450838</v>
+        <v>0.003024503769602311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9823941310236506</v>
+        <v>2.285707903482943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06268625169221652</v>
+        <v>0.005270529431042424</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.006461638132911331</v>
+        <v>-0.004823425188889096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01127583258414872</v>
+        <v>0.007032446845868501</v>
       </c>
       <c r="H6" t="n">
-        <v>0.107504123150485</v>
+        <v>0.1043872598989788</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002926697150993379</v>
+        <v>0.005254766853219207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00304097285996164</v>
+        <v>0.004644266476306593</v>
       </c>
       <c r="D7" t="n">
-        <v>1.447811912775559</v>
+        <v>4.379847309338646</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04462223979975933</v>
+        <v>0.001643401456486382</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.003033604614214098</v>
+        <v>-0.00384785499573886</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008886998916200857</v>
+        <v>0.01435738870217728</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1080237230758597</v>
+        <v>0.1085375159237083</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007309432218548083</v>
+        <v>0.02934553417950313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002857074256734269</v>
+        <v>0.00425728056543912</v>
       </c>
       <c r="D8" t="n">
-        <v>1.854941787714828</v>
+        <v>11.36188312237061</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02950236330283168</v>
+        <v>0.04708332184117783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001709564807040641</v>
+        <v>0.0210013939927424</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01290929963005553</v>
+        <v>0.03768967436626387</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1124064581434144</v>
+        <v>0.1326282832499922</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006501636386839147</v>
+        <v>0.03265094753321694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003387177185103047</v>
+        <v>0.005372996153359723</v>
       </c>
       <c r="D9" t="n">
-        <v>2.15844292585381</v>
+        <v>15.57276322578737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04488339071287926</v>
+        <v>0.06189039294776968</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0001372249663525722</v>
+        <v>0.02212003928590978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01314049774003087</v>
+        <v>0.04318185578052409</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1115986623117054</v>
+        <v>0.1359336966037061</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1050970259248663</v>
+        <v>-0.1032827490704891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001527487286743569</v>
+        <v>0.0005694284115987781</v>
       </c>
       <c r="D10" t="n">
-        <v>-103.4876073761339</v>
+        <v>-230.4098665142313</v>
       </c>
       <c r="E10" t="n">
-        <v>5.028451425696247e-13</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1080908999991863</v>
+        <v>-0.1043988120543223</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1021031518505463</v>
+        <v>-0.1021666860866559</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04734415975477715</v>
+        <v>-0.04736442151549015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001630539902762925</v>
+        <v>0.0006016225185623984</v>
       </c>
       <c r="D11" t="n">
-        <v>-40.57761563478601</v>
+        <v>-96.1312663314131</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005707635248349247</v>
+        <v>1.318191952768195e-279</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05054001695516479</v>
+        <v>-0.04854358400135905</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04414830255438953</v>
+        <v>-0.04618525902962124</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05775286617008912</v>
+        <v>0.05591832755499895</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03918471070094558</v>
+        <v>-0.03909081751746011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001592152556552671</v>
+        <v>0.0005869529006753061</v>
       </c>
       <c r="D12" t="n">
-        <v>-35.45411379779942</v>
+        <v>-82.57571264211641</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01258330005721624</v>
+        <v>3.047563889247479e-227</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04230532880132025</v>
+        <v>-0.04024122798973506</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03606409260057091</v>
+        <v>-0.03794040704518515</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06591231522392069</v>
+        <v>0.06419193155302899</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03375119587024546</v>
+        <v>-0.03335510558858117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001560377343374812</v>
+        <v>0.0005774692866451155</v>
       </c>
       <c r="D13" t="n">
-        <v>-32.38912429198348</v>
+        <v>-71.948214187369</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01296242477306534</v>
+        <v>6.632606906660757e-126</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03680953483755839</v>
+        <v>-0.0344869284627916</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03069285690293256</v>
+        <v>-0.03222328271437074</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07134583005462081</v>
+        <v>0.06992764348190794</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02963981487687189</v>
+        <v>-0.03087808215686661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001525073041964269</v>
+        <v>0.0005624301923174425</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.4279610895946</v>
+        <v>-69.44666938940283</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006312968641289786</v>
+        <v>4.98664466004938e-140</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03262895739459216</v>
+        <v>-0.0319804288462914</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0266506723591516</v>
+        <v>-0.02977573546744182</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07545721104799438</v>
+        <v>0.07240466691362249</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02556814696571476</v>
+        <v>-0.02650656905974687</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00151970774559001</v>
+        <v>0.0005591936326301471</v>
       </c>
       <c r="D15" t="n">
-        <v>-25.92514404324039</v>
+        <v>-58.93009461994982</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01936039293113482</v>
+        <v>5.556829096270904e-99</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02854677361301923</v>
+        <v>-0.02760257218820355</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02258952031841033</v>
+        <v>-0.02541056593129019</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07952887895915152</v>
+        <v>0.07677618001074224</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02323351192434077</v>
+        <v>-0.02414408901062102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001521881627198361</v>
+        <v>0.000559660158224322</v>
       </c>
       <c r="D16" t="n">
-        <v>-23.71974644676726</v>
+        <v>-53.43715554716025</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05307108390297487</v>
+        <v>1.429972428663068e-55</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02621639959253522</v>
+        <v>-0.02524100652471994</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0202506242561463</v>
+        <v>-0.02304717149652211</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08186351400052551</v>
+        <v>0.07913866005986808</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02224885407795726</v>
+        <v>-0.02248066792742855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001554365949247382</v>
+        <v>0.0005655428809024975</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.8793139153628</v>
+        <v>-49.67194242402783</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0326258720335284</v>
+        <v>1.654191259525222e-59</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02529541103208102</v>
+        <v>-0.02358911539882896</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0192022971238335</v>
+        <v>-0.02137222045602814</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08284817184690901</v>
+        <v>0.08080208114306056</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01874097658240152</v>
+        <v>-0.01989744723870494</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001545076405085265</v>
+        <v>0.0005687573121337462</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.64507274474401</v>
+        <v>-40.94868575061944</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02579828306330748</v>
+        <v>7.88864485388906e-43</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02176932585679012</v>
+        <v>-0.02101219490568048</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01571262730801291</v>
+        <v>-0.0187826995717294</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08635604934246476</v>
+        <v>0.08338530183178416</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01588029712639623</v>
+        <v>-0.01685928269530315</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001561907029946352</v>
+        <v>0.0005721717598939574</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.71875827619971</v>
+        <v>-33.2383387244386</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04164734683088492</v>
+        <v>7.577811518708963e-17</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.018941634529553</v>
+        <v>-0.01798072257819874</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01281895972323946</v>
+        <v>-0.01573784281240755</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08921672879847005</v>
+        <v>0.08642346637518596</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01360258530215848</v>
+        <v>-0.01479964664143699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001577688954768935</v>
+        <v>0.0005781644270461732</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.23567365335929</v>
+        <v>-28.65157037572939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02976185862181899</v>
+        <v>0.01159313765412665</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01669485535060355</v>
+        <v>-0.01593283198543198</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0105103152537134</v>
+        <v>-0.01366646129744199</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0914944406227078</v>
+        <v>0.08848310242905212</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.009351300099221508</v>
+        <v>-0.01086289039593508</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001613264002722551</v>
+        <v>0.0005905602168530004</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.35274079692919</v>
+        <v>-19.43462176241935</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06793271731412853</v>
+        <v>3.430133750637629e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01251329681708201</v>
+        <v>-0.01202037113353169</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006189303381361002</v>
+        <v>-0.009705409658338469</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09574572582564476</v>
+        <v>0.09241985867455403</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005279642498379144</v>
+        <v>-0.007222199894794783</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00164075883297669</v>
+        <v>0.0005930676062191558</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.58251910595922</v>
+        <v>-11.12689255830032</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09570402987329236</v>
+        <v>0.04741263110994309</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008495529167050698</v>
+        <v>-0.008384595047250537</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.002063755829707591</v>
+        <v>-0.006059804742339027</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09981738342648713</v>
+        <v>0.09606054917569433</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003984216165207322</v>
+        <v>-0.005710960279529289</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001671862920322201</v>
+        <v>0.0005985555987679838</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.077302825024594</v>
+        <v>-8.569398641180443</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1001098313320865</v>
+        <v>0.1364817949179106</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007261066654721672</v>
+        <v>-0.006884111729868276</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.000707365675692976</v>
+        <v>-0.004537808829190301</v>
       </c>
       <c r="H23" t="n">
-        <v>0.101112809759659</v>
+        <v>0.09757178879095982</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002577820448919724</v>
+        <v>-0.004884883832734936</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001654815784623611</v>
+        <v>0.0005875874666679092</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.559353958719389</v>
+        <v>-8.585938013147771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06906042558026916</v>
+        <v>0.05745343707799912</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005821258568551144</v>
+        <v>-0.006036538052667169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006656176707116923</v>
+        <v>-0.003733229612802705</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1025192054759465</v>
+        <v>0.09839786523775418</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.062146390023726e-05</v>
+        <v>-0.00284536375971885</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001772545149144162</v>
+        <v>0.0005939617381392074</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.969658941662781</v>
+        <v>-5.770895618908816</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1099465986331191</v>
+        <v>0.008529766938610656</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003413565506793691</v>
+        <v>-0.00400951135889401</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003534808434594163</v>
+        <v>-0.00168121616054369</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1051576473887665</v>
+        <v>0.1004373853107703</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007711859118202902</v>
+        <v>0.02723554208481277</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007873023119635209</v>
+        <v>0.0007842127250260329</v>
       </c>
       <c r="D26" t="n">
-        <v>4.962653798383101</v>
+        <v>25.86458914183782</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03507386302298767</v>
+        <v>6.906694836983625e-15</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006168747768914372</v>
+        <v>0.02569850850163167</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009254970467491436</v>
+        <v>0.02877257566799387</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1128088850430692</v>
+        <v>0.1305182911553019</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year20final.xlsx
+++ b/hourly datasets/cap_gen_year20final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1032827490704891</v>
+        <v>0.1012768958662592</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004763625017518802</v>
+        <v>0.002835174576916814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008438719170554776</v>
+        <v>0.0009102925407636651</v>
       </c>
       <c r="D3" t="n">
-        <v>5.481658796936038</v>
+        <v>4.266494781222296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1337365934067819</v>
+        <v>0.08685861631267904</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003109660717741514</v>
+        <v>0.001051027492958378</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006417589317296092</v>
+        <v>0.00461932166087525</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1080463740880079</v>
+        <v>0.104112070443176</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009274788942493036</v>
+        <v>0.004735169592553581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00133149388849625</v>
+        <v>0.001393021024717782</v>
       </c>
       <c r="D4" t="n">
-        <v>9.993172196100661</v>
+        <v>8.604899071559364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04521872179843062</v>
+        <v>0.02958887783799277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006665100332934794</v>
+        <v>0.00200488921197964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01188447755205128</v>
+        <v>0.007465449973127519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1125575380129821</v>
+        <v>0.1060120654588128</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007588028959536758</v>
+        <v>0.004845813705609167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005155505738442479</v>
+        <v>0.002020497127382241</v>
       </c>
       <c r="D5" t="n">
-        <v>4.816190498694034</v>
+        <v>5.124434645492538</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07189748726389381</v>
+        <v>0.05764589330498237</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00251661501146993</v>
+        <v>0.0008856988023430409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01769267293054345</v>
+        <v>0.008805928608875295</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1108707780300259</v>
+        <v>0.1061227095718684</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001104510828489702</v>
+        <v>0.003684956079280433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003024503769602311</v>
+        <v>0.003389127563175126</v>
       </c>
       <c r="D6" t="n">
-        <v>2.285707903482943</v>
+        <v>3.153257179898406</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005270529431042424</v>
+        <v>0.04787989255289538</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.004823425188889096</v>
+        <v>-0.002957634015917718</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007032446845868501</v>
+        <v>0.01032754617447858</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1043872598989788</v>
+        <v>0.1049618519455396</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005254766853219207</v>
+        <v>0.009113835671566773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004644266476306593</v>
+        <v>0.005117097710292394</v>
       </c>
       <c r="D7" t="n">
-        <v>4.379847309338646</v>
+        <v>3.903903707923841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001643401456486382</v>
+        <v>0.09368488530740679</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00384785499573886</v>
+        <v>-0.0009155254985606048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01435738870217728</v>
+        <v>0.01914319684169415</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1085375159237083</v>
+        <v>0.110390731537826</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02934553417950313</v>
+        <v>0.02423243501916359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00425728056543912</v>
+        <v>0.006164731676456143</v>
       </c>
       <c r="D8" t="n">
-        <v>11.36188312237061</v>
+        <v>9.639479760960512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04708332184117783</v>
+        <v>0.1577312088768798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0210013939927424</v>
+        <v>0.01214974585097241</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03768967436626387</v>
+        <v>0.03631512418735476</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1326282832499922</v>
+        <v>0.1255093308854228</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03265094753321694</v>
+        <v>0.03303124083777263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005372996153359723</v>
+        <v>0.005383297098107149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.57276322578737</v>
+        <v>13.87948951482476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06189039294776968</v>
+        <v>0.1314203444498295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02212003928590978</v>
+        <v>0.02248014148948032</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04318185578052409</v>
+        <v>0.04358234018606493</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1359336966037061</v>
+        <v>0.1343081367040318</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1032827490704891</v>
+        <v>-0.1012768958662592</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005694284115987781</v>
+        <v>0.0005676774601007496</v>
       </c>
       <c r="D10" t="n">
-        <v>-230.4098665142313</v>
+        <v>-227.0705672853864</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1043988120543223</v>
+        <v>-0.1023895272339297</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1021666860866559</v>
+        <v>-0.1001642644985887</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04736442151549015</v>
+        <v>-0.04553013583975572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006016225185623984</v>
+        <v>0.000601175219350278</v>
       </c>
       <c r="D11" t="n">
-        <v>-96.1312663314131</v>
+        <v>-94.08341675440563</v>
       </c>
       <c r="E11" t="n">
-        <v>1.318191952768195e-279</v>
+        <v>3.497909068759643e-132</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04854358400135905</v>
+        <v>-0.04670842183306101</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04618525902962124</v>
+        <v>-0.04435184984645042</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05591832755499895</v>
+        <v>0.05574676002650349</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03909081751746011</v>
+        <v>-0.03689099293582893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005869529006753061</v>
+        <v>0.0005848790472341513</v>
       </c>
       <c r="D12" t="n">
-        <v>-82.57571264211641</v>
+        <v>-78.5946143424829</v>
       </c>
       <c r="E12" t="n">
-        <v>3.047563889247479e-227</v>
+        <v>2.408754917304706e-105</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04024122798973506</v>
+        <v>-0.03803733891685759</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03794040704518515</v>
+        <v>-0.03574464695480025</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06419193155302899</v>
+        <v>0.06438590293043028</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03335510558858117</v>
+        <v>-0.03134869175778381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005774692866451155</v>
+        <v>0.0005772817125739279</v>
       </c>
       <c r="D13" t="n">
-        <v>-71.948214187369</v>
+        <v>-69.37536035642572</v>
       </c>
       <c r="E13" t="n">
-        <v>6.632606906660757e-126</v>
+        <v>2.152996949401718e-35</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0344869284627916</v>
+        <v>-0.03248014718948977</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03222328271437074</v>
+        <v>-0.03021723632607787</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06992764348190794</v>
+        <v>0.06992820410847539</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03087808215686661</v>
+        <v>-0.02899479080675496</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005624301923174425</v>
+        <v>0.0005642846093726107</v>
       </c>
       <c r="D14" t="n">
-        <v>-69.44666938940283</v>
+        <v>-66.4036341738432</v>
       </c>
       <c r="E14" t="n">
-        <v>4.98664466004938e-140</v>
+        <v>3.374532990766352e-46</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0319804288462914</v>
+        <v>-0.03010077229503444</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02977573546744182</v>
+        <v>-0.0278888093184755</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07240466691362249</v>
+        <v>0.07228210505950425</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02650656905974687</v>
+        <v>-0.02484721307810974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005591936326301471</v>
+        <v>0.0005598571681051527</v>
       </c>
       <c r="D15" t="n">
-        <v>-58.93009461994982</v>
+        <v>-56.62896707359307</v>
       </c>
       <c r="E15" t="n">
-        <v>5.556829096270904e-99</v>
+        <v>3.32828384296308e-41</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02760257218820355</v>
+        <v>-0.02594451691572236</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02541056593129019</v>
+        <v>-0.0237499092404971</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07677618001074224</v>
+        <v>0.07642968278814948</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02414408901062102</v>
+        <v>-0.02271151854353343</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000559660158224322</v>
+        <v>0.0005608665754891903</v>
       </c>
       <c r="D16" t="n">
-        <v>-53.43715554716025</v>
+        <v>-51.66938099818405</v>
       </c>
       <c r="E16" t="n">
-        <v>1.429972428663068e-55</v>
+        <v>1.110001299518864e-36</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02524100652471994</v>
+        <v>-0.02381080080813375</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02304717149652211</v>
+        <v>-0.02161223627893311</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07913866005986808</v>
+        <v>0.07856537732272578</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02248066792742855</v>
+        <v>-0.02105855212480824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005655428809024975</v>
+        <v>0.0005679605311534879</v>
       </c>
       <c r="D17" t="n">
-        <v>-49.67194242402783</v>
+        <v>-47.60328024662202</v>
       </c>
       <c r="E17" t="n">
-        <v>1.654191259525222e-59</v>
+        <v>3.83683753957696e-16</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02358911539882896</v>
+        <v>-0.02217173831747332</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02137222045602814</v>
+        <v>-0.01994536593214316</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08080208114306056</v>
+        <v>0.08021834374145097</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01989744723870494</v>
+        <v>-0.01849338196025401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005687573121337462</v>
+        <v>0.0005695412314956965</v>
       </c>
       <c r="D18" t="n">
-        <v>-40.94868575061944</v>
+        <v>-39.41712126889804</v>
       </c>
       <c r="E18" t="n">
-        <v>7.88864485388906e-43</v>
+        <v>5.895734300268437e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02101219490568048</v>
+        <v>-0.01960966628290331</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0187826995717294</v>
+        <v>-0.0173770976376047</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08338530183178416</v>
+        <v>0.0827835139060052</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01685928269530315</v>
+        <v>-0.01568953205577559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005721717598939574</v>
+        <v>0.0005732029091510038</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.2383387244386</v>
+        <v>-32.67323960829367</v>
       </c>
       <c r="E19" t="n">
-        <v>7.577811518708963e-17</v>
+        <v>1.657624891810661e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01798072257819874</v>
+        <v>-0.01681299316040146</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01573784281240755</v>
+        <v>-0.01456607095114972</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08642346637518596</v>
+        <v>0.08558736381048362</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01479964664143699</v>
+        <v>-0.01342680862466016</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005781644270461732</v>
+        <v>0.0005769293202975893</v>
       </c>
       <c r="D20" t="n">
-        <v>-28.65157037572939</v>
+        <v>-27.95848464169335</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01159313765412665</v>
+        <v>0.0263953494009028</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01593283198543198</v>
+        <v>-0.01455757338666374</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01366646129744199</v>
+        <v>-0.01229604386265657</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08848310242905212</v>
+        <v>0.08785008724159905</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01086289039593508</v>
+        <v>-0.01028776462041928</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005905602168530004</v>
+        <v>0.0005877540271470042</v>
       </c>
       <c r="D21" t="n">
-        <v>-19.43462176241935</v>
+        <v>-19.60274365118591</v>
       </c>
       <c r="E21" t="n">
-        <v>3.430133750637629e-07</v>
+        <v>0.04160582397468073</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01202037113353169</v>
+        <v>-0.01143974550343207</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.009705409658338469</v>
+        <v>-0.00913578373740649</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09241985867455403</v>
+        <v>0.09098913124583993</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007222199894794783</v>
+        <v>-0.006524059639508468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005930676062191558</v>
+        <v>0.0005929858994843223</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.12689255830032</v>
+        <v>-11.17720515727054</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04741263110994309</v>
+        <v>3.047246962634258e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008384595047250537</v>
+        <v>-0.007686294854202791</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.006059804742339027</v>
+        <v>-0.005361824424814148</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09606054917569433</v>
+        <v>0.09475283622675074</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005710960279529289</v>
+        <v>-0.00481090655550874</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005985555987679838</v>
+        <v>0.0005998010224722642</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.569398641180443</v>
+        <v>-8.541426104581983</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1364817949179106</v>
+        <v>0.0002917886270847214</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006884111729868276</v>
+        <v>-0.00598649920493678</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004537808829190301</v>
+        <v>-0.003635313906080701</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09757178879095982</v>
+        <v>0.09646598931075047</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004884883832734936</v>
+        <v>-0.003720898539118823</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005875874666679092</v>
+        <v>0.0005900753231062147</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.585938013147771</v>
+        <v>-8.625676545666055</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05745343707799912</v>
+        <v>0.002481981834573467</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006036538052667169</v>
+        <v>-0.004877429097777864</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003733229612802705</v>
+        <v>-0.002564367980459784</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09839786523775418</v>
+        <v>0.09755599732714039</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00284536375971885</v>
+        <v>-0.001912247597851571</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005939617381392074</v>
+        <v>0.0005950679008443936</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.770895618908816</v>
+        <v>-5.91837283189886</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008529766938610656</v>
+        <v>0.05313835460633832</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00400951135889401</v>
+        <v>-0.00307856347871109</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.00168121616054369</v>
+        <v>-0.0007459317169920526</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1004373853107703</v>
+        <v>0.09936464826840764</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02723554208481277</v>
+        <v>0.009086437546165217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007842127250260329</v>
+        <v>0.001099796924737493</v>
       </c>
       <c r="D26" t="n">
-        <v>25.86458914183782</v>
+        <v>16.72390901568033</v>
       </c>
       <c r="E26" t="n">
-        <v>6.906694836983625e-15</v>
+        <v>0.001008725224750065</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02569850850163167</v>
+        <v>0.006930868376495383</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02877257566799387</v>
+        <v>0.01124200671583505</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1305182911553019</v>
+        <v>0.1103633334124244</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year20final.xlsx
+++ b/hourly datasets/cap_gen_year20final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,605 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1012768958662592</v>
+        <v>0.1321378373273102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002835174576916814</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0009102925407636651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.266494781222296</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08685861631267904</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001051027492958378</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00461932166087525</v>
-      </c>
+        <v>0.1328984048555544</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.104112070443176</v>
+        <v>0.2650362421828646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004735169592553581</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001393021024717782</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.604899071559364</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02958887783799277</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00200488921197964</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.007465449973127519</v>
-      </c>
+        <v>0.1582320937479128</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1060120654588128</v>
+        <v>0.290369931075223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004845813705609167</v>
+        <v>0.03926136447640281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002020497127382241</v>
+        <v>0.001917512779125634</v>
       </c>
       <c r="D5" t="n">
-        <v>5.124434645492538</v>
+        <v>8.701703156910209</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05764589330498237</v>
+        <v>0.01042599298904372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008856988023430409</v>
+        <v>0.03549830764363218</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008805928608875295</v>
+        <v>0.04302442130917255</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1061227095718684</v>
+        <v>0.171399201803713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003684956079280433</v>
+        <v>0.0218972775258266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003389127563175126</v>
+        <v>0.0009780713512386647</v>
       </c>
       <c r="D6" t="n">
-        <v>3.153257179898406</v>
+        <v>4.409408352329693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04787989255289538</v>
+        <v>0.008549573761531711</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002957634015917718</v>
+        <v>0.01997959118915717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01032754617447858</v>
+        <v>0.0238149638624963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1049618519455396</v>
+        <v>0.1540351148531368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009113835671566773</v>
+        <v>0.0121829135106633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005117097710292394</v>
+        <v>0.0007534194690379343</v>
       </c>
       <c r="D7" t="n">
-        <v>3.903903707923841</v>
+        <v>2.703065550617475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09368488530740679</v>
+        <v>0.01064723052977547</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0009155254985606048</v>
+        <v>0.0107043703294711</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01914319684169415</v>
+        <v>0.01366145669185558</v>
       </c>
       <c r="H7" t="n">
-        <v>0.110390731537826</v>
+        <v>0.1443207508379735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02423243501916359</v>
+        <v>0.004693281524778752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006164731676456143</v>
+        <v>0.000339626062666251</v>
       </c>
       <c r="D8" t="n">
-        <v>9.639479760960512</v>
+        <v>0.6868860830108182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1577312088768798</v>
+        <v>0.001438104514618179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01214974585097241</v>
+        <v>0.004027281059698902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03631512418735476</v>
+        <v>0.005359281989858645</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1255093308854228</v>
+        <v>0.136831118852089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03303124083777263</v>
+        <v>0.004052429045146422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005383297098107149</v>
+        <v>0.0003474695022496112</v>
       </c>
       <c r="D9" t="n">
-        <v>13.87948951482476</v>
+        <v>0.7141563350027612</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1314203444498295</v>
+        <v>0.001877991759902397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02248014148948032</v>
+        <v>0.003371062268955879</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04358234018606493</v>
+        <v>0.004733795821336766</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1343081367040318</v>
+        <v>0.1361902663724566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1012768958662592</v>
+        <v>0.004001867002863695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005676774601007496</v>
+        <v>0.0003411673124397935</v>
       </c>
       <c r="D10" t="n">
-        <v>-227.0705672853864</v>
+        <v>0.7903768266444615</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.003834259403334764</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1023895272339297</v>
+        <v>0.003332821779204187</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1001642644985887</v>
+        <v>0.004670912226523194</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1361397043301739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04553013583975572</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000601175219350278</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-94.08341675440563</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.497909068759643e-132</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04670842183306101</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04435184984645042</v>
-      </c>
+        <v>0.03283320597407007</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05574676002650349</v>
+        <v>0.1649710433013803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03689099293582893</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005848790472341513</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-78.5946143424829</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.408754917304706e-105</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03803733891685759</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03574464695480025</v>
-      </c>
+        <v>0.0576054627165735</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06438590293043028</v>
+        <v>0.1897433000438837</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03134869175778381</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005772817125739279</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-69.37536035642572</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.152996949401718e-35</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03248014718948977</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03021723632607787</v>
-      </c>
+        <v>0.07590138065279337</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06992820410847539</v>
+        <v>0.2080392179801036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02899479080675496</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005642846093726107</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-66.4036341738432</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.374532990766352e-46</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.03010077229503444</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.0278888093184755</v>
-      </c>
+        <v>0.08396062282085084</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07228210505950425</v>
+        <v>0.2160984601481611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02484721307810974</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005598571681051527</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-56.62896707359307</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.32828384296308e-41</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02594451691572236</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0237499092404971</v>
-      </c>
+        <v>0.08921426177221528</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07642968278814948</v>
+        <v>0.2213520990995255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02271151854353343</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005608665754891903</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-51.66938099818405</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.110001299518864e-36</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02381080080813375</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02161223627893311</v>
-      </c>
+        <v>0.09527064740768496</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07856537732272578</v>
+        <v>0.2274084847349952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02105855212480824</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005679605311534879</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-47.60328024662202</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.83683753957696e-16</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02217173831747332</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01994536593214316</v>
-      </c>
+        <v>0.0960077109216337</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08021834374145097</v>
+        <v>0.2281455482489439</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01849338196025401</v>
+        <v>-0.1321378373273102</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005695412314956965</v>
+        <v>0.007513297697558705</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.41712126889804</v>
+        <v>-13687540104876.12</v>
       </c>
       <c r="E18" t="n">
-        <v>5.895734300268437e-05</v>
+        <v>0.02342294544906449</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01960966628290331</v>
+        <v>-0.1470189421384732</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0173770976376047</v>
+        <v>-0.1172567325161476</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0827835139060052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01568953205577559</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005732029091510038</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-32.67323960829367</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.657624891810661e-07</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01681299316040146</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01456607095114972</v>
-      </c>
+        <v>0.09782988260366346</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08558736381048362</v>
+        <v>0.2299677199309737</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01342680862466016</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005769293202975893</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-27.95848464169335</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0263953494009028</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01455757338666374</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01229604386265657</v>
-      </c>
+        <v>0.1018690229023558</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08785008724159905</v>
+        <v>0.234006860229666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01028776462041928</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005877540271470042</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-19.60274365118591</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.04160582397468073</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01143974550343207</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.00913578373740649</v>
-      </c>
+        <v>0.1057405100107059</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09098913124583993</v>
+        <v>0.2378783473380162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006524059639508468</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005929858994843223</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-11.17720515727054</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.047246962634258e-05</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.007686294854202791</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.005361824424814148</v>
-      </c>
+        <v>0.1098822478554161</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.09475283622675074</v>
+        <v>0.2420200851827263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00481090655550874</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005998010224722642</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-8.541426104581983</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0002917886270847214</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.00598649920493678</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.003635313906080701</v>
-      </c>
+        <v>0.1139767808485587</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09646598931075047</v>
+        <v>0.2461146181758689</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003720898539118823</v>
+        <v>0.1194987014351632</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005900753231062147</v>
+        <v>0.006135696174885857</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.625676545666055</v>
+        <v>30.42721149738488</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002481981834573467</v>
+        <v>0.03729025483915418</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004877429097777864</v>
+        <v>0.1073970762681917</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002564367980459784</v>
+        <v>0.1316003266021339</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09755599732714039</v>
+        <v>0.2516365387624734</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001912247597851571</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0005950679008443936</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.91837283189886</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.05313835460633832</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.00307856347871109</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.0007459317169920526</v>
-      </c>
+        <v>0.1237162646266963</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.09936464826840764</v>
+        <v>0.2558541019540065</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1253084600141325</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1340705119752.18</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2574462973414428</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1317969034181055</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>711212653850.0157</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2639347407454158</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1385223664085815</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.006410647504627232</v>
+      </c>
+      <c r="D28" t="n">
+        <v>529039869558.9149</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0614104470930512</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1259232961781623</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1511214366390009</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2706602037358917</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.009086437546165217</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001099796924737493</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.72390901568033</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.001008725224750065</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.006930868376495383</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01124200671583505</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1103633334124244</v>
+      <c r="B29" t="n">
+        <v>0.006213736793798788</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0002230235055360536</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.577693382162571</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0295781160084392</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.005776390106094479</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006651083481503085</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.138351574121109</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year20final.xlsx
+++ b/hourly datasets/cap_gen_year20final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1321378373273102</v>
+        <v>0.1016322605355135</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1328984048555544</v>
+        <v>0.1331043532377512</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2650362421828646</v>
+        <v>0.2347366137732647</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1582320937479128</v>
+        <v>0.1580679086825927</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.290369931075223</v>
+        <v>0.2597001692181062</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03926136447640281</v>
+        <v>0.04376156664135121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001917512779125634</v>
+        <v>0.002529839505213326</v>
       </c>
       <c r="D5" t="n">
-        <v>8.701703156910209</v>
+        <v>8.761641952528331</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01042599298904372</v>
+        <v>0.01542800872070308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03549830764363218</v>
+        <v>0.03879675392540394</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04302442130917255</v>
+        <v>0.04872637935729793</v>
       </c>
       <c r="H5" t="n">
-        <v>0.171399201803713</v>
+        <v>0.1453938271768647</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +564,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0218972775258266</v>
+        <v>0.02783253679909668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009780713512386647</v>
+        <v>0.001766389746154192</v>
       </c>
       <c r="D6" t="n">
-        <v>4.409408352329693</v>
+        <v>4.776274590672215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008549573761531711</v>
+        <v>0.01275749563726479</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01997959118915717</v>
+        <v>0.02436808887859849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0238149638624963</v>
+        <v>0.03129698471959536</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1540351148531368</v>
+        <v>0.1294647973346101</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0121829135106633</v>
+        <v>0.01834357672657711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007534194690379343</v>
+        <v>0.001438133890871352</v>
       </c>
       <c r="D7" t="n">
-        <v>2.703065550617475</v>
+        <v>3.184669944891964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01064723052977547</v>
+        <v>0.01534245702020938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0107043703294711</v>
+        <v>0.01552136312821852</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01366145669185558</v>
+        <v>0.02116579032493603</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1443207508379735</v>
+        <v>0.1199758372620906</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +620,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004693281524778752</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.000339626062666251</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6868860830108182</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.001438104514618179</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.004027281059698902</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.005359281989858645</v>
-      </c>
+        <v>0.01162570027688834</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.136831118852089</v>
+        <v>0.1132579608124018</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004052429045146422</v>
+        <v>0.01218648742028626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003474695022496112</v>
+        <v>0.00105278393511706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7141563350027612</v>
+        <v>1.383215647023965</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001877991759902397</v>
+        <v>0.006056334445960623</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003371062268955879</v>
+        <v>0.01012114568143264</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004733795821336766</v>
+        <v>0.01425182915913969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1361902663724566</v>
+        <v>0.1138187479557997</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004001867002863695</v>
+        <v>0.01164651242353386</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003411673124397935</v>
+        <v>0.001178678676683818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7903768266444615</v>
+        <v>1.402255000863588</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003834259403334764</v>
+        <v>0.00763873425262017</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003332821779204187</v>
+        <v>0.009334718847606192</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004670912226523194</v>
+        <v>0.01395830599946176</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1361397043301739</v>
+        <v>0.1132787729590473</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03283320597407007</v>
+        <v>0.03383545647285402</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1649710433013803</v>
+        <v>0.1354677170083675</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0576054627165735</v>
+        <v>0.05926678375606758</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1897433000438837</v>
+        <v>0.1608990442915811</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07590138065279337</v>
+        <v>0.07702324577357501</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2080392179801036</v>
+        <v>0.1786555063090885</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +748,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08396062282085084</v>
+        <v>0.08557982281271152</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -766,7 +756,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2160984601481611</v>
+        <v>0.187212083348225</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08921426177221528</v>
+        <v>0.09137061353124869</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +774,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2213520990995255</v>
+        <v>0.1930028740667621</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +784,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09527064740768496</v>
+        <v>0.09614514120463856</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -802,7 +792,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2274084847349952</v>
+        <v>0.197777401740152</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0960077109216337</v>
+        <v>0.0966519284594832</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -820,7 +810,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2281455482489439</v>
+        <v>0.1982841889949967</v>
       </c>
     </row>
     <row r="18">
@@ -830,22 +820,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1321378373273102</v>
+        <v>-0.1016322605355135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007513297697558705</v>
+        <v>0.008184724085594378</v>
       </c>
       <c r="D18" t="n">
-        <v>-13687540104876.12</v>
+        <v>-19.78194440735432</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02342294544906449</v>
+        <v>0.0241487565814973</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1470189421384732</v>
+        <v>-0.1177433714158163</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1172567325161476</v>
+        <v>-0.08552114965521068</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -858,7 +848,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09782988260366346</v>
+        <v>0.09991613980274094</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -866,7 +856,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2299677199309737</v>
+        <v>0.2015484003382544</v>
       </c>
     </row>
     <row r="20">
@@ -876,7 +866,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1018690229023558</v>
+        <v>0.1030089044794883</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -884,7 +874,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.234006860229666</v>
+        <v>0.2046411650150018</v>
       </c>
     </row>
     <row r="21">
@@ -894,15 +884,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1057405100107059</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>0.1069993869585494</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.006737559737895482</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27.23521515254481</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04266115757544881</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09374248010681115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1202562938102871</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.2378783473380162</v>
+        <v>0.2086316474940628</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1098822478554161</v>
+        <v>0.1112317171313762</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -920,7 +920,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2420200851827263</v>
+        <v>0.2128639776668896</v>
       </c>
     </row>
     <row r="23">
@@ -930,15 +930,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1139767808485587</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0.11472946700891</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.006933558217167623</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28.76314926053296</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03970665460976443</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1011106768971863</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1283482571206334</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.2461146181758689</v>
+        <v>0.2163617275444235</v>
       </c>
     </row>
     <row r="24">
@@ -948,25 +958,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1194987014351632</v>
+        <v>0.1191865821360233</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006135696174885857</v>
+        <v>0.006561567039717055</v>
       </c>
       <c r="D24" t="n">
-        <v>30.42721149738488</v>
+        <v>30.11727319675678</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03729025483915418</v>
+        <v>0.03672389257228235</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1073970762681917</v>
+        <v>0.1062944953281114</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1316003266021339</v>
+        <v>0.1320786689439353</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2516365387624734</v>
+        <v>0.2208188426715368</v>
       </c>
     </row>
     <row r="25">
@@ -976,15 +986,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1237162646266963</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1242988019061651</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.006690923673680792</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30.792460216712</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03913274174929359</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1111473941228753</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1374502096894548</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2558541019540065</v>
+        <v>0.2259310624416785</v>
       </c>
     </row>
     <row r="26">
@@ -994,21 +1014,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1253084600141325</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.12590755635499</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.006783264532057268</v>
       </c>
       <c r="D26" t="n">
-        <v>1340705119752.18</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>31.40931333238305</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03079473828585882</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1125789749865675</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1392361377234135</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2574462973414428</v>
+        <v>0.2275398168905035</v>
       </c>
     </row>
     <row r="27">
@@ -1018,21 +1042,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1317969034181055</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1313646774139538</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00646597891310742</v>
       </c>
       <c r="D27" t="n">
-        <v>711212653850.0157</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>31.78002835819297</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03787074213135282</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1186646448267631</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1440647100011441</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2639347407454158</v>
+        <v>0.2329969379494672</v>
       </c>
     </row>
     <row r="28">
@@ -1042,25 +1070,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1385223664085815</v>
+        <v>0.1385421202412916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006410647504627232</v>
+        <v>0.006929313523036389</v>
       </c>
       <c r="D28" t="n">
-        <v>529039869558.9149</v>
+        <v>30.33036311964915</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0614104470930512</v>
+        <v>0.06298901182335746</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1259232961781623</v>
+        <v>0.1249367251303649</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1511214366390009</v>
+        <v>0.1521475153522188</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2706602037358917</v>
+        <v>0.2401743807768051</v>
       </c>
     </row>
     <row r="29">
@@ -1070,25 +1098,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.006213736793798788</v>
+        <v>0.0148064697366559</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002230235055360536</v>
+        <v>0.001128555487046371</v>
       </c>
       <c r="D29" t="n">
-        <v>1.577693382162571</v>
+        <v>2.379300267459233</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0295781160084392</v>
+        <v>0.02966488404541591</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005776390106094479</v>
+        <v>0.01256775377464908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006651083481503085</v>
+        <v>0.01704518569866261</v>
       </c>
       <c r="H29" t="n">
-        <v>0.138351574121109</v>
+        <v>0.1164387302721694</v>
       </c>
     </row>
   </sheetData>
